--- a/target.xlsx
+++ b/target.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{838B4EF6-EF2D-4A68-AF85-C822244F596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADF9A70-11D8-420E-A7C7-64A991CB85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAN product" sheetId="1" r:id="rId1"/>
+    <sheet name="WAT url" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MAN ID</t>
   </si>
@@ -35,6 +36,15 @@
   </si>
   <si>
     <t>433243</t>
+  </si>
+  <si>
+    <t>WAT url</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/%E8%AD%B7%E8%88%92%E5%AF%B6radiant%E6%97%A5%E7%94%A824cm-9%E7%89%87/p/BP_287456</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/%E6%BB%8B%E6%BD%A4%E8%82%B2%E9%AB%AE%E7%B2%BE%E8%8F%AF%E7%B4%A0/p/BP_266919</t>
   </si>
 </sst>
 </file>
@@ -53,9 +63,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,33 +87,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,48 +399,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="201.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="201.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="201.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="201.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
+      <c r="G1" s="1">
         <v>44495</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="1">
         <v>44495</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56225A47-D66B-4F66-B487-3C862EFE73DC}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3BE67645-1947-4C4C-B9EF-F9B51F594E1A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{59C5E996-631A-403F-987A-7E03910BF5DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target.xlsx
+++ b/target.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADF9A70-11D8-420E-A7C7-64A991CB85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25001633\Documents\daily record\ManningsPricing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F0C86-48AA-4839-A268-1472DDDF6BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAN product" sheetId="1" r:id="rId1"/>
     <sheet name="WAT url" sheetId="2" r:id="rId2"/>
+    <sheet name="product record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,24 +33,322 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>MAN ID</t>
   </si>
   <si>
-    <t>572123</t>
-  </si>
-  <si>
-    <t>433243</t>
-  </si>
-  <si>
     <t>WAT url</t>
   </si>
   <si>
-    <t>https://www.watsons.com.hk/%E8%AD%B7%E8%88%92%E5%AF%B6radiant%E6%97%A5%E7%94%A824cm-9%E7%89%87/p/BP_287456</t>
-  </si>
-  <si>
-    <t>https://www.watsons.com.hk/%E6%BB%8B%E6%BD%A4%E8%82%B2%E9%AB%AE%E7%B2%BE%E8%8F%AF%E7%B4%A0/p/BP_266919</t>
+    <t>MAN id</t>
+  </si>
+  <si>
+    <t>WAT id</t>
+  </si>
+  <si>
+    <t>FW/MUR</t>
+  </si>
+  <si>
+    <t>Neutrogena Deep Clean Purifying Scrub</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/neutrogena-deep-clean-brightening-foaming-cleanser-100g/p/BP_261330</t>
+  </si>
+  <si>
+    <t>Neutrogena Deep Clean Brightening Foaming</t>
+  </si>
+  <si>
+    <t>072512</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/bifesta-cleansing-lotion-moist/p/BP_296288</t>
+  </si>
+  <si>
+    <t>Bifesta Cleansing lotion Moist/BrightUp</t>
+  </si>
+  <si>
+    <t>Bifesta Cleansing Liquid</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/cleansing-sheet-moist/p/BP_250613</t>
+  </si>
+  <si>
+    <t>Bifesta Cleansing Sheet
+Moist 46pcs/Perfect Clear 46pcs</t>
+  </si>
+  <si>
+    <t>Bifesta Cleansing Sheet Moist 10pcs</t>
+  </si>
+  <si>
+    <t>Bifesta Foaming Whip
+Moist/Acne</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/senka-all-clear-oil/p/BP_265981</t>
+  </si>
+  <si>
+    <t>Bifesta Micellar Eye Makeup Remover 145ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bifesta Micellar Cleansing Water 
+Sensitive/Water/Bright Up/Moist </t>
+  </si>
+  <si>
+    <t>Senka Perfect Clear Cleanse 170ml</t>
+  </si>
+  <si>
+    <t>Senka ALL Clear Oil</t>
+  </si>
+  <si>
+    <t>Senka Perfect Whip 120g/Jumbo</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/perfect-white-clay-120g/p/BP_292971</t>
+  </si>
+  <si>
+    <t>Senka Perfect White Clay / Whip Collagen</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/senka-all-clear-double-wash-foam/p/BP_265982</t>
+  </si>
+  <si>
+    <t>Senka ALL Clear Double Wash 120g</t>
+  </si>
+  <si>
+    <t>Senka Speedy Perfect Whip</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/sensibio-h2o-watsons/p/BP_262653</t>
+  </si>
+  <si>
+    <t>Bioderma Sensibio H2O 500ml</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/bioderma-sensibio-bonus-set-pump/p/BP_807961</t>
+  </si>
+  <si>
+    <t>Bioderma Sensibio H2O Bonus Set
+ (Pump Version) 500ml x 2 Bottles</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/perfect-uv-sunscreen-skincare-bb-foundation-c1-spf50-pa-25ml/p/BP_801277</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANESSA Perfect UV Sunscreen Skincare BB Foundation C1 SPF50+ PA++++ 25ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anessa Perfect UV Sunscreen Skincare Milk SPF50+ PA++++ 60ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anessa Perfect UV Sunscreen Skincare Spray SPF50+ PA++++ 60g</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/perfect-uv-sunscreen-skincare-gel-spf50-pa-90g/p/BP_801291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anessa Perfect UV Sunscreen Skincare Gel SPF50+ PA++++ 90g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anessa Perfect UV Sunscreen Banded Pack</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/perfect-uv-sunscreen-skincare-milk-limited-spf50-pa-60ml/p/BP_805955</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANESSA Perfect UV Sunscreen Skincare Milk (Limited) SPF50+ PA++++ 60ml</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/perfect-uv-sunscreen-mild-milk-spf50-pa-60ml/p/BP_805956</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANESSA Perfect UV Sunscreen Mild Milk SPF50+ PA++++ 60ml</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/moisture-uv-sunscreen-mild-gel-spf35-pa-90g/p/BP_805958</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANESSA Moisture UV Sunscreen Mild Gel SPF35 PA+++ 90g</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/sunplay-skin-aqua-phyiscal-sunscreen-spf50/p/BP_801337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunplay Skin Aqua Physical Sunscreen for Sensitive Skin </t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/sunplay-super-block-spf130pa/p/BP_801308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunplay Super Block SPF130 </t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/aloe-vera-gel-230g/p/BP_214152</t>
+  </si>
+  <si>
+    <t>Banana Boat Aloe Vera Gel 230g</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/ultra-mist-sport-sunscreen-lotion-spf110-90ml/p/BP_245822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana Boat Sport Sunscreen Lotion </t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/bbt-simply-protect-kids-spray-spf50-6oz-170g/p/BP_325884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana Boat Simply Protect Kids Sunscreen Spray </t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/biore-uv-aqua-rich-light-up-essence-spf50/p/BP_805748</t>
+  </si>
+  <si>
+    <t>Biore UV Aqua Rich Light Up Essence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biore UV Kids Mild Pure Milk </t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/biore-aqua-rich-watery-essence-50g/p/BP_325826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biore UV Watery Essence </t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/biore-aqua-rich-watery-gel-90ml/p/BP_325827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biore UV Watery Gel </t>
+  </si>
+  <si>
+    <t>Essential Purify Deep Cleansing Shampoo 700ml</t>
+  </si>
+  <si>
+    <t>Essential Breakage Defence Shampoo 700ml</t>
+  </si>
+  <si>
+    <t>Rerise Color Reblack Tame 155g</t>
+  </si>
+  <si>
+    <t>Pantene Miracles Crystal Smooth Treatment 500g</t>
+  </si>
+  <si>
+    <t>Hair Supplement by LUX Treatment - Natural Shine 450g</t>
+  </si>
+  <si>
+    <t>Pantene Micellar Volume Treatment 500g</t>
+  </si>
+  <si>
+    <t>Moist Diane Miracel You Shampoo 450ml</t>
+  </si>
+  <si>
+    <t>Moist Diane Perfect Beauty Extra Hair Fall Control Shampoo 450ml</t>
+  </si>
+  <si>
+    <t>50 Megumi Color Care Shampoo 400mL</t>
+  </si>
+  <si>
+    <t>50 Megumi Anti-grey Shampoo 400ml</t>
+  </si>
+  <si>
+    <t>Ryo Damage Care Shampoo 500ml</t>
+  </si>
+  <si>
+    <t>Ryo Hair Loss Care Shampoo For Dry&amp;Normal Scalp 400ml</t>
+  </si>
+  <si>
+    <t>Hair Recipe Kiwi &amp; Fig Shampoo 530ml</t>
+  </si>
+  <si>
+    <t>VS Sassoon Moist Ad Shampoo 750mL</t>
+  </si>
+  <si>
+    <t>078956</t>
+  </si>
+  <si>
+    <t>451369</t>
+  </si>
+  <si>
+    <t>367839</t>
+  </si>
+  <si>
+    <t>484170</t>
+  </si>
+  <si>
+    <t>810671</t>
+  </si>
+  <si>
+    <t>179663</t>
+  </si>
+  <si>
+    <t>881979</t>
+  </si>
+  <si>
+    <t>288175</t>
+  </si>
+  <si>
+    <t>935353</t>
+  </si>
+  <si>
+    <t>737908</t>
+  </si>
+  <si>
+    <t>531079</t>
+  </si>
+  <si>
+    <t>535682</t>
+  </si>
+  <si>
+    <t>491571</t>
+  </si>
+  <si>
+    <t>149856</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/essential-purify-deep-cleansing-care-shampoo-700ml/p/BP_370611</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/nourishing-breakage-defense-shampoo/p/BP_485385</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/ptn-miracles-crystal-smooth-trt500g/p/BP_370593</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/rerise-hair-colour-treatment-reblack-tame/p/BP_261543</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/lux-hair-supplement-shampoo-450g-natural-shine/p/BP_805400</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/micellar-volume-sh/p/BP_406820</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/moist-diane-miracle-you-shampoo/p/BP_801668</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/moist-diane-perfect-beauty-extra-hair-fall-control-shampoo-450ml/p/BP_806076</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/color-care-shampoo/p/BP_296291</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/50-megumi-anti-grey-shampoo-400ml/p/BP_805721</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/damage-care-shampoo/p/BP_242363</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/ryo-hair-loss-care-shampoo-for-sensitive-scalp-400ml/p/BP_497142</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/hair-recipe-kiwi-fig-volume-shampoo-530ml/p/BP_807103</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/moisturizing-ad-sh/p/BP_244823</t>
   </si>
 </sst>
 </file>
@@ -54,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +374,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,10 +441,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,38 +774,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
     <col min="5" max="5" width="201.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="201.140625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1">
         <v>44495</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>163147</v>
       </c>
       <c r="G2" s="1">
         <v>44495</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>555797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>147686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>645457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>231951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>594895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>147694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>937565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>620682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>620740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>214874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>707968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>199075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>214981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>960112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>601153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>793760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>787168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>786780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>786772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>470732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>672147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>673988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>672808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>801613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>801605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>959700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>176537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>678243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>723718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>801886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>655092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>655258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -440,33 +1046,776 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56225A47-D66B-4F66-B487-3C862EFE73DC}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3BE67645-1947-4C4C-B9EF-F9B51F594E1A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{59C5E996-631A-403F-987A-7E03910BF5DF}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D4D9096F-FB34-40FE-92D5-46A1C93946CF}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{16C61FD7-184B-4FB0-BF4B-003304D3A9AE}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{F7EC6CD0-7F73-437E-BB94-B825F871552D}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{E603C767-6275-4250-AF90-B2E3DE41DE49}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{62571574-719E-4A79-B9A8-ACCD831EEB39}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{244538C0-B4F2-402A-9B8E-650CDBDCA719}"/>
+    <hyperlink ref="A17" r:id="rId7" xr:uid="{9DA80DA6-F0CC-4F26-A9D1-7B99BE6E2C46}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{0256B479-E684-4949-9349-688B811EFA1D}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{D6D17C8D-6E14-45D7-A47D-1D29BDE5F1C3}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{42D381C5-EA2F-46B9-A9F5-28EBBCE33A59}"/>
+    <hyperlink ref="A27" r:id="rId11" xr:uid="{70AD2839-51E4-467D-8341-A95D2C2FF67B}"/>
+    <hyperlink ref="A26" r:id="rId12" xr:uid="{5CEB37DB-0F8D-4EDD-9468-6C1B409B5093}"/>
+    <hyperlink ref="A28" r:id="rId13" xr:uid="{FA4EAB9F-A74D-4979-B424-2218E2A357CD}"/>
+    <hyperlink ref="A29" r:id="rId14" xr:uid="{DA8FEB38-962E-4C3C-8859-D83C5D65A2B2}"/>
+    <hyperlink ref="A30" r:id="rId15" xr:uid="{61F02761-FED9-4F6F-BBFB-3DEC63745157}"/>
+    <hyperlink ref="A31" r:id="rId16" xr:uid="{B44B2E3B-C068-420D-973B-F5999106EA5C}"/>
+    <hyperlink ref="A32" r:id="rId17" xr:uid="{53D897B3-C0D6-4842-B1C2-08A8078098C1}"/>
+    <hyperlink ref="A33" r:id="rId18" xr:uid="{59E0CEBE-63BF-400D-BFF3-83C03D90531D}"/>
+    <hyperlink ref="A34" r:id="rId19" xr:uid="{878EB227-0000-416D-B300-805CB39DD93E}"/>
+    <hyperlink ref="A36" r:id="rId20" xr:uid="{16C8FC18-A8FA-41A7-85A1-C4D2ABADF2C9}"/>
+    <hyperlink ref="A37" r:id="rId21" xr:uid="{9602D3C3-8B9E-46D5-8C6E-5AB90B044B55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F4613-96E5-40F9-862F-B932DB19B3E1}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="71.85546875" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>163147</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>555797</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>147686</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>645457</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>231951</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>594895</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>147694</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>937565</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>620682</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>620740</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>214874</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>707968</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>199075</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>214981</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>960112</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>601153</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>793760</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>787168</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>786780</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>786772</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>470732</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>672147</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>673988</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>672808</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>801613</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>801605</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>959700</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>176537</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>678243</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>723718</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>801886</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>655092</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>655258</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0C84AB37-7AFD-4751-B39A-47D1A0104058}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{B6D372E9-2AEF-4C6B-B63C-0BABB9786E6C}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{96A68AA5-735C-4C03-AE5B-BE2DA1AA6474}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{0ED23185-DD2B-4E9E-A9FB-B5B9BFD0A976}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{A1B5A45C-DC19-4173-963A-220117D9302F}"/>
+    <hyperlink ref="B18" r:id="rId6" xr:uid="{DFE031B0-2177-4DC9-9EAE-76F94C030B66}"/>
+    <hyperlink ref="B30" r:id="rId7" xr:uid="{EE785AB5-7F6F-4479-A833-AE825135F436}"/>
+    <hyperlink ref="B29" r:id="rId8" xr:uid="{B7E88122-CFE1-4B8C-9D88-665980431798}"/>
+    <hyperlink ref="B32" r:id="rId9" xr:uid="{878AD7C8-6483-4E5D-8DC8-3DB30A7741F5}"/>
+    <hyperlink ref="B31" r:id="rId10" xr:uid="{4DDFC1C6-3F15-43D4-82D0-973DB8F06B85}"/>
+    <hyperlink ref="B41" r:id="rId11" xr:uid="{78B1AE87-8A02-4D50-9956-DF6A181E4330}"/>
+    <hyperlink ref="B40" r:id="rId12" xr:uid="{66AB4DD1-A604-42EF-B949-C03BCA059FCC}"/>
+    <hyperlink ref="B42" r:id="rId13" xr:uid="{5C3EF437-73F5-477A-A82C-C666D975C81F}"/>
+    <hyperlink ref="B43" r:id="rId14" xr:uid="{1105EB7E-000F-4B1B-82E6-D1157B08C6CC}"/>
+    <hyperlink ref="B44" r:id="rId15" xr:uid="{0396FF36-C4F7-4430-9D28-83B75E093EBF}"/>
+    <hyperlink ref="B45" r:id="rId16" xr:uid="{A82D35DA-DFC9-4F8D-9169-79118D733685}"/>
+    <hyperlink ref="B46" r:id="rId17" xr:uid="{3706B4AD-16FE-4CC3-85C2-C12922C0F097}"/>
+    <hyperlink ref="B47" r:id="rId18" xr:uid="{01BFB8A0-4DFD-4EA5-9C62-45E58E4B3BBE}"/>
+    <hyperlink ref="B48" r:id="rId19" xr:uid="{16CECDE5-5855-4CAD-A9B1-8BB6DA073C48}"/>
+    <hyperlink ref="B50" r:id="rId20" xr:uid="{F0535AD5-D83C-4848-BBB4-FBFA933648E4}"/>
+    <hyperlink ref="B51" r:id="rId21" xr:uid="{9A7A6C05-B5A0-4B43-9293-A11D0A6B1891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target.xlsx
+++ b/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25001633\Documents\daily record\ManningsPricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F0C86-48AA-4839-A268-1472DDDF6BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D54777-11B9-4113-A484-2FE101B684B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1755" windowWidth="14400" windowHeight="14445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAN product" sheetId="1" r:id="rId1"/>
@@ -1046,196 +1046,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56225A47-D66B-4F66-B487-3C862EFE73DC}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>53</v>
+      <c r="A20" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>55</v>
+      <c r="A21" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>58</v>
+      <c r="A22" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>60</v>
+      <c r="A23" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>91</v>
+      <c r="A24" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>92</v>
+      <c r="A27" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>100</v>
+      <c r="A34" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>101</v>
+      <c r="A35" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1247,21 +1245,22 @@
     <hyperlink ref="A7" r:id="rId4" xr:uid="{E603C767-6275-4250-AF90-B2E3DE41DE49}"/>
     <hyperlink ref="A9" r:id="rId5" xr:uid="{62571574-719E-4A79-B9A8-ACCD831EEB39}"/>
     <hyperlink ref="A10" r:id="rId6" xr:uid="{244538C0-B4F2-402A-9B8E-650CDBDCA719}"/>
-    <hyperlink ref="A17" r:id="rId7" xr:uid="{9DA80DA6-F0CC-4F26-A9D1-7B99BE6E2C46}"/>
-    <hyperlink ref="A16" r:id="rId8" xr:uid="{0256B479-E684-4949-9349-688B811EFA1D}"/>
-    <hyperlink ref="A19" r:id="rId9" xr:uid="{D6D17C8D-6E14-45D7-A47D-1D29BDE5F1C3}"/>
-    <hyperlink ref="A18" r:id="rId10" xr:uid="{42D381C5-EA2F-46B9-A9F5-28EBBCE33A59}"/>
-    <hyperlink ref="A27" r:id="rId11" xr:uid="{70AD2839-51E4-467D-8341-A95D2C2FF67B}"/>
-    <hyperlink ref="A26" r:id="rId12" xr:uid="{5CEB37DB-0F8D-4EDD-9468-6C1B409B5093}"/>
-    <hyperlink ref="A28" r:id="rId13" xr:uid="{FA4EAB9F-A74D-4979-B424-2218E2A357CD}"/>
-    <hyperlink ref="A29" r:id="rId14" xr:uid="{DA8FEB38-962E-4C3C-8859-D83C5D65A2B2}"/>
-    <hyperlink ref="A30" r:id="rId15" xr:uid="{61F02761-FED9-4F6F-BBFB-3DEC63745157}"/>
-    <hyperlink ref="A31" r:id="rId16" xr:uid="{B44B2E3B-C068-420D-973B-F5999106EA5C}"/>
-    <hyperlink ref="A32" r:id="rId17" xr:uid="{53D897B3-C0D6-4842-B1C2-08A8078098C1}"/>
-    <hyperlink ref="A33" r:id="rId18" xr:uid="{59E0CEBE-63BF-400D-BFF3-83C03D90531D}"/>
-    <hyperlink ref="A34" r:id="rId19" xr:uid="{878EB227-0000-416D-B300-805CB39DD93E}"/>
-    <hyperlink ref="A36" r:id="rId20" xr:uid="{16C8FC18-A8FA-41A7-85A1-C4D2ABADF2C9}"/>
-    <hyperlink ref="A37" r:id="rId21" xr:uid="{9602D3C3-8B9E-46D5-8C6E-5AB90B044B55}"/>
+    <hyperlink ref="A16" r:id="rId7" xr:uid="{9DA80DA6-F0CC-4F26-A9D1-7B99BE6E2C46}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{0256B479-E684-4949-9349-688B811EFA1D}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{D6D17C8D-6E14-45D7-A47D-1D29BDE5F1C3}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{42D381C5-EA2F-46B9-A9F5-28EBBCE33A59}"/>
+    <hyperlink ref="A26" r:id="rId11" xr:uid="{70AD2839-51E4-467D-8341-A95D2C2FF67B}"/>
+    <hyperlink ref="A25" r:id="rId12" xr:uid="{5CEB37DB-0F8D-4EDD-9468-6C1B409B5093}"/>
+    <hyperlink ref="A27" r:id="rId13" xr:uid="{FA4EAB9F-A74D-4979-B424-2218E2A357CD}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{DA8FEB38-962E-4C3C-8859-D83C5D65A2B2}"/>
+    <hyperlink ref="A29" r:id="rId15" xr:uid="{61F02761-FED9-4F6F-BBFB-3DEC63745157}"/>
+    <hyperlink ref="A30" r:id="rId16" xr:uid="{B44B2E3B-C068-420D-973B-F5999106EA5C}"/>
+    <hyperlink ref="A31" r:id="rId17" xr:uid="{53D897B3-C0D6-4842-B1C2-08A8078098C1}"/>
+    <hyperlink ref="A32" r:id="rId18" xr:uid="{59E0CEBE-63BF-400D-BFF3-83C03D90531D}"/>
+    <hyperlink ref="A33" r:id="rId19" xr:uid="{878EB227-0000-416D-B300-805CB39DD93E}"/>
+    <hyperlink ref="A35" r:id="rId20" xr:uid="{16C8FC18-A8FA-41A7-85A1-C4D2ABADF2C9}"/>
+    <hyperlink ref="A36" r:id="rId21" xr:uid="{9602D3C3-8B9E-46D5-8C6E-5AB90B044B55}"/>
+    <hyperlink ref="A11" r:id="rId22" xr:uid="{576230D7-7DF4-46DC-9AB7-DC0024E80571}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target.xlsx
+++ b/target.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25001633\Documents\daily record\ManningsPricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D54777-11B9-4113-A484-2FE101B684B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534E3B3F-D2E6-435D-A41A-332A05EE0501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1755" windowWidth="14400" windowHeight="14445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAN product" sheetId="1" r:id="rId1"/>
-    <sheet name="WAT url" sheetId="2" r:id="rId2"/>
-    <sheet name="product record" sheetId="3" r:id="rId3"/>
+    <sheet name="cat url" sheetId="4" r:id="rId2"/>
+    <sheet name="WAT url" sheetId="2" r:id="rId3"/>
+    <sheet name="PNS url" sheetId="5" r:id="rId4"/>
+    <sheet name="product record" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
   <si>
     <t>MAN ID</t>
   </si>
@@ -57,12 +59,6 @@
   </si>
   <si>
     <t>Neutrogena Deep Clean Brightening Foaming</t>
-  </si>
-  <si>
-    <t>072512</t>
-  </si>
-  <si>
-    <t>https://www.watsons.com.hk/bifesta-cleansing-lotion-moist/p/BP_296288</t>
   </si>
   <si>
     <t>Bifesta Cleansing lotion Moist/BrightUp</t>
@@ -349,6 +345,99 @@
   </si>
   <si>
     <t>https://www.watsons.com.hk/moisturizing-ad-sh/p/BP_244823</t>
+  </si>
+  <si>
+    <t>072538</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/bifesta-%E9%80%9F%E6%95%88%E5%8D%B8%E5%A6%9D%E6%BD%94%E8%86%9A%E6%B0%B4-%E6%B8%85%E7%88%BD%E5%9E%8B/p/BP_296287</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/bifesta-eye-makeup-remover/p/BP_243818</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/%E7%A2%A7%E6%9F%94%E6%BA%AB%E5%92%8C%E6%B0%B4%E5%AB%A9%E6%B4%97%E9%9D%A2%E8%86%8F/p/BP_477788</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/%E7%A2%A7%E6%9F%94%E6%B0%B4%E5%AB%A9%E5%BD%88%E6%BB%91%E6%B4%97%E9%9D%A2%E6%B3%A1%E6%B2%AB/p/BP_253092</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/bifesta-cleansing-lotion-moist/p/BP_296288</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/%E7%9A%87%E7%89%8C%E4%BF%9D%E6%BF%95%E6%B4%97%E9%A1%8F%E6%B3%A1%E6%B3%A1-%E8%BC%95%E9%AC%86%E5%B0%8F%E7%86%8A%E9%99%90%E5%AE%9A%E7%89%88/p/BP_240008</t>
+  </si>
+  <si>
+    <t>072512</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>https://www.mannings.com.hk/personalcarenhair/hair/shampoo/c/fepcshampoo</t>
+  </si>
+  <si>
+    <t>https://www.mannings.com.hk/personalcarenhair/hair/conditioner/c/fepcconditioner</t>
+  </si>
+  <si>
+    <t>https://www.mannings.com.hk/personalcarenhair/hair/treatment/c/fetreatment</t>
+  </si>
+  <si>
+    <t>https://www.mannings.com.hk/personalcarenhair/hair/hair-loss/c/fehairloss</t>
+  </si>
+  <si>
+    <t>PNS url</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/nourishing-breakage-defense-shampoo/p/BP_485385</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/purify-deep-cleansing-care-sh/p/BP_370611</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/hair-colour-treatment-reblack-tame/p/BP_261543</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/miracle-crystal-smooth-trt/p/BP_370593</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/lux-hair-supplement-treatment-450g-/p/BP_805401</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/ptn-micellar-volume-sh/p/BP_406820</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/color-care-shampoo/p/BP_296291</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/damage-care-shampoo/p/BP_242363</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/hairloss-care-shamp-sensitive/p/BP_497142</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/hair-recipe-kiwi-fig-sh-530ml/p/BP_807103</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/moisturizing-ad-sh-750ml/p/BP_244823</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/miracle-you-damage-repair-shampoo/p/BP_801668</t>
+  </si>
+  <si>
+    <t>https://www.parknshop.com/zh-hk/perfectbeauty-ex-moist-shampoo/p/BP_235099</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/perfect-whip-fresh-100g/p/BP_243114</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/speedy-perfect-whip-150ml/p/BP_453219</t>
+  </si>
+  <si>
+    <t>https://www.watsons.com.hk/perfect-whip-collagen-in-rilakkuma-limited/p/BP_236031</t>
   </si>
 </sst>
 </file>
@@ -358,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +468,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -471,6 +567,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,246 +895,252 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>163147</v>
+      <c r="A2">
+        <v>772822</v>
       </c>
       <c r="G2" s="1">
         <v>44495</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3">
+        <v>727503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>163147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>555797</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="C5" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>147686</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="C6">
+        <v>672147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>645457</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>231951</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>594895</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>147694</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>937565</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>620682</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>620740</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>214874</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>707968</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>199075</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>214981</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>960112</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>601153</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>793760</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>787168</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>786780</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>786772</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>470732</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>672147</v>
-      </c>
-    </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25">
         <v>673988</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26">
         <v>672808</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27">
         <v>801613</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28">
         <v>801605</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29">
         <v>959700</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30">
         <v>176537</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31">
         <v>678243</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32">
         <v>723718</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33">
         <v>801886</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34">
         <v>655092</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35">
         <v>655258</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1045,11 +1149,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4492CEF-776E-4AD8-9D29-5EAC31E4CC1E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56225A47-D66B-4F66-B487-3C862EFE73DC}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,218 +1210,348 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
+      <c r="K4" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
+      <c r="A6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>93</v>
+      <c r="A25" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>94</v>
+      <c r="A27" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>95</v>
+      <c r="A28" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>101</v>
+      <c r="A34" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>103</v>
+      <c r="A36" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D4D9096F-FB34-40FE-92D5-46A1C93946CF}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{16C61FD7-184B-4FB0-BF4B-003304D3A9AE}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{F7EC6CD0-7F73-437E-BB94-B825F871552D}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{E603C767-6275-4250-AF90-B2E3DE41DE49}"/>
-    <hyperlink ref="A9" r:id="rId5" xr:uid="{62571574-719E-4A79-B9A8-ACCD831EEB39}"/>
-    <hyperlink ref="A10" r:id="rId6" xr:uid="{244538C0-B4F2-402A-9B8E-650CDBDCA719}"/>
-    <hyperlink ref="A16" r:id="rId7" xr:uid="{9DA80DA6-F0CC-4F26-A9D1-7B99BE6E2C46}"/>
-    <hyperlink ref="A15" r:id="rId8" xr:uid="{0256B479-E684-4949-9349-688B811EFA1D}"/>
-    <hyperlink ref="A18" r:id="rId9" xr:uid="{D6D17C8D-6E14-45D7-A47D-1D29BDE5F1C3}"/>
-    <hyperlink ref="A17" r:id="rId10" xr:uid="{42D381C5-EA2F-46B9-A9F5-28EBBCE33A59}"/>
-    <hyperlink ref="A26" r:id="rId11" xr:uid="{70AD2839-51E4-467D-8341-A95D2C2FF67B}"/>
-    <hyperlink ref="A25" r:id="rId12" xr:uid="{5CEB37DB-0F8D-4EDD-9468-6C1B409B5093}"/>
-    <hyperlink ref="A27" r:id="rId13" xr:uid="{FA4EAB9F-A74D-4979-B424-2218E2A357CD}"/>
-    <hyperlink ref="A28" r:id="rId14" xr:uid="{DA8FEB38-962E-4C3C-8859-D83C5D65A2B2}"/>
-    <hyperlink ref="A29" r:id="rId15" xr:uid="{61F02761-FED9-4F6F-BBFB-3DEC63745157}"/>
-    <hyperlink ref="A30" r:id="rId16" xr:uid="{B44B2E3B-C068-420D-973B-F5999106EA5C}"/>
-    <hyperlink ref="A31" r:id="rId17" xr:uid="{53D897B3-C0D6-4842-B1C2-08A8078098C1}"/>
-    <hyperlink ref="A32" r:id="rId18" xr:uid="{59E0CEBE-63BF-400D-BFF3-83C03D90531D}"/>
-    <hyperlink ref="A33" r:id="rId19" xr:uid="{878EB227-0000-416D-B300-805CB39DD93E}"/>
-    <hyperlink ref="A35" r:id="rId20" xr:uid="{16C8FC18-A8FA-41A7-85A1-C4D2ABADF2C9}"/>
-    <hyperlink ref="A36" r:id="rId21" xr:uid="{9602D3C3-8B9E-46D5-8C6E-5AB90B044B55}"/>
-    <hyperlink ref="A11" r:id="rId22" xr:uid="{576230D7-7DF4-46DC-9AB7-DC0024E80571}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{FDB292A3-E159-48DE-A11A-EDFF30F68E5D}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{45990900-C74D-421D-BAB6-0FE902FD83E9}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{05569534-9821-49D4-916F-76FB2424DE31}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{9D66276C-B3FA-4944-AD0E-8F950883377A}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{791E4B60-9E44-49D7-8D50-FF09B33DD8F2}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{86A545F9-72AE-4422-8F80-EAE0B0EDD719}"/>
+    <hyperlink ref="A18" r:id="rId7" xr:uid="{D4DFDF1E-0008-4424-8644-70818F6BE795}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{6E5B3F38-FAB1-4ED0-8495-87A8DB47B824}"/>
+    <hyperlink ref="A20" r:id="rId9" xr:uid="{CCC2B818-5338-4D68-BE1C-D3DB23AF2651}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{921D9720-B136-4D35-88A2-DF3F8E617DE5}"/>
+    <hyperlink ref="K7" r:id="rId11" xr:uid="{C006826F-97F1-4C45-A8A5-D6D6C3802968}"/>
+    <hyperlink ref="A3" r:id="rId12" xr:uid="{C87FA922-4308-4888-924E-CDB063FF890D}"/>
+    <hyperlink ref="A2" r:id="rId13" xr:uid="{9440BFF8-CA28-43E4-A4BA-C9C84825A3BE}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{FBCA80C0-A923-419A-A1E2-048520B4965D}"/>
+    <hyperlink ref="A27" r:id="rId15" xr:uid="{D39B33AB-8E47-40F8-BF5B-E2C02DAAA929}"/>
+    <hyperlink ref="A29" r:id="rId16" xr:uid="{BB2C2494-09E8-4E96-8686-2CEC0AA86439}"/>
+    <hyperlink ref="A30" r:id="rId17" xr:uid="{5DADFED0-35FF-4612-BBA3-70D6FB338DC9}"/>
+    <hyperlink ref="A31" r:id="rId18" xr:uid="{0C7ED011-34FF-4F29-B732-0E570B0BED99}"/>
+    <hyperlink ref="A32" r:id="rId19" xr:uid="{DCF52F69-23F6-4BD5-8A80-25E77CBFB450}"/>
+    <hyperlink ref="A33" r:id="rId20" xr:uid="{2EAC8D8A-CA76-48E9-8165-169ABBFC7E93}"/>
+    <hyperlink ref="A34" r:id="rId21" xr:uid="{0B755D0A-25F9-421B-81A1-10A18E79FD0E}"/>
+    <hyperlink ref="A35" r:id="rId22" xr:uid="{E13E86A2-096D-4174-A136-6055AD00853D}"/>
+    <hyperlink ref="A37" r:id="rId23" xr:uid="{6FE7DEDA-C94A-4C0C-A27B-1A8928E8A6CD}"/>
+    <hyperlink ref="A38" r:id="rId24" xr:uid="{24245081-CC59-48F4-AA94-3CDE422CB9D4}"/>
+    <hyperlink ref="A36" r:id="rId25" xr:uid="{E1663605-22DA-4C68-AB3D-A8E0A1F8671A}"/>
+    <hyperlink ref="K8" r:id="rId26" xr:uid="{00335078-57DA-4E5C-A33F-B8C0C948EBD2}"/>
+    <hyperlink ref="A11" r:id="rId27" xr:uid="{309E67D7-C79F-494A-A234-D0136CD99C92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB962E6-896A-4BE0-B26D-92D8AAFE32B5}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{9070A755-532E-4325-894E-E02996733132}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D85CA1EC-0ADA-4E0A-85DA-33A846739732}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{CBB6DA5B-FFF0-449C-9F34-EE6EE0003A9E}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{D4F3B7D1-9D6E-4AA7-B54E-2340325418D0}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{E16448ED-0C7B-4EE4-83FE-5F36C2A6AC15}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{10D739D5-C958-4CCC-9C87-14E42D8ADAFC}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{FE096EDD-145A-4078-BDDA-A420C7B80AA8}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{C7033AA4-494E-4E4F-A4E3-697D60DF6061}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{59FB8E2E-B80B-4AE0-A04C-A01FA9030BD1}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{A41F5FEA-3B69-4081-ADE3-42B16A7AD2B1}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{77B97B55-30DD-432C-B8C6-A6F99FA70E6B}"/>
+    <hyperlink ref="A8" r:id="rId12" xr:uid="{6D69DE6A-43B5-40C3-A75C-E8CFEF353A4A}"/>
+    <hyperlink ref="A9" r:id="rId13" xr:uid="{AC203C0D-2ECE-49A8-8871-396A0491F8E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F4613-96E5-40F9-862F-B932DB19B3E1}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,13 +1592,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1606,7 @@
         <v>147686</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,10 +1614,10 @@
         <v>645457</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1625,7 @@
         <v>231951</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1633,7 @@
         <v>594895</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,10 +1641,10 @@
         <v>147694</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,7 +1652,7 @@
         <v>937565</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,7 +1660,7 @@
         <v>620682</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,10 +1668,10 @@
         <v>620740</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,7 +1679,7 @@
         <v>214874</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,10 +1687,10 @@
         <v>707968</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,10 +1698,10 @@
         <v>199075</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1709,7 @@
         <v>214981</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,10 +1717,10 @@
         <v>960112</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,10 +1728,10 @@
         <v>601153</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,7 +1740,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,10 +1748,10 @@
         <v>793760</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,7 +1759,7 @@
         <v>787168</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,7 +1767,7 @@
         <v>786780</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,10 +1775,10 @@
         <v>786772</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,7 +1786,7 @@
         <v>470732</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,10 +1794,10 @@
         <v>672147</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,10 +1805,10 @@
         <v>673988</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,10 +1816,10 @@
         <v>672808</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,10 +1827,10 @@
         <v>801613</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,10 +1838,10 @@
         <v>801605</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,10 +1849,10 @@
         <v>959700</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,10 +1860,10 @@
         <v>176537</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,10 +1871,10 @@
         <v>678243</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,10 +1882,10 @@
         <v>723718</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +1893,7 @@
         <v>801886</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,10 +1901,10 @@
         <v>655092</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,189 +1912,189 @@
         <v>655258</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{0C84AB37-7AFD-4751-B39A-47D1A0104058}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{B6D372E9-2AEF-4C6B-B63C-0BABB9786E6C}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{96A68AA5-735C-4C03-AE5B-BE2DA1AA6474}"/>
-    <hyperlink ref="B14" r:id="rId4" xr:uid="{0ED23185-DD2B-4E9E-A9FB-B5B9BFD0A976}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{A1B5A45C-DC19-4173-963A-220117D9302F}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{DFE031B0-2177-4DC9-9EAE-76F94C030B66}"/>
-    <hyperlink ref="B30" r:id="rId7" xr:uid="{EE785AB5-7F6F-4479-A833-AE825135F436}"/>
-    <hyperlink ref="B29" r:id="rId8" xr:uid="{B7E88122-CFE1-4B8C-9D88-665980431798}"/>
-    <hyperlink ref="B32" r:id="rId9" xr:uid="{878AD7C8-6483-4E5D-8DC8-3DB30A7741F5}"/>
-    <hyperlink ref="B31" r:id="rId10" xr:uid="{4DDFC1C6-3F15-43D4-82D0-973DB8F06B85}"/>
-    <hyperlink ref="B41" r:id="rId11" xr:uid="{78B1AE87-8A02-4D50-9956-DF6A181E4330}"/>
-    <hyperlink ref="B40" r:id="rId12" xr:uid="{66AB4DD1-A604-42EF-B949-C03BCA059FCC}"/>
-    <hyperlink ref="B42" r:id="rId13" xr:uid="{5C3EF437-73F5-477A-A82C-C666D975C81F}"/>
-    <hyperlink ref="B43" r:id="rId14" xr:uid="{1105EB7E-000F-4B1B-82E6-D1157B08C6CC}"/>
-    <hyperlink ref="B44" r:id="rId15" xr:uid="{0396FF36-C4F7-4430-9D28-83B75E093EBF}"/>
-    <hyperlink ref="B45" r:id="rId16" xr:uid="{A82D35DA-DFC9-4F8D-9169-79118D733685}"/>
-    <hyperlink ref="B46" r:id="rId17" xr:uid="{3706B4AD-16FE-4CC3-85C2-C12922C0F097}"/>
-    <hyperlink ref="B47" r:id="rId18" xr:uid="{01BFB8A0-4DFD-4EA5-9C62-45E58E4B3BBE}"/>
-    <hyperlink ref="B48" r:id="rId19" xr:uid="{16CECDE5-5855-4CAD-A9B1-8BB6DA073C48}"/>
-    <hyperlink ref="B50" r:id="rId20" xr:uid="{F0535AD5-D83C-4848-BBB4-FBFA933648E4}"/>
-    <hyperlink ref="B51" r:id="rId21" xr:uid="{9A7A6C05-B5A0-4B43-9293-A11D0A6B1891}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{0ED23185-DD2B-4E9E-A9FB-B5B9BFD0A976}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{A1B5A45C-DC19-4173-963A-220117D9302F}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{DFE031B0-2177-4DC9-9EAE-76F94C030B66}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{EE785AB5-7F6F-4479-A833-AE825135F436}"/>
+    <hyperlink ref="B29" r:id="rId7" xr:uid="{B7E88122-CFE1-4B8C-9D88-665980431798}"/>
+    <hyperlink ref="B32" r:id="rId8" xr:uid="{878AD7C8-6483-4E5D-8DC8-3DB30A7741F5}"/>
+    <hyperlink ref="B31" r:id="rId9" xr:uid="{4DDFC1C6-3F15-43D4-82D0-973DB8F06B85}"/>
+    <hyperlink ref="B41" r:id="rId10" xr:uid="{78B1AE87-8A02-4D50-9956-DF6A181E4330}"/>
+    <hyperlink ref="B40" r:id="rId11" xr:uid="{66AB4DD1-A604-42EF-B949-C03BCA059FCC}"/>
+    <hyperlink ref="B42" r:id="rId12" xr:uid="{5C3EF437-73F5-477A-A82C-C666D975C81F}"/>
+    <hyperlink ref="B43" r:id="rId13" xr:uid="{1105EB7E-000F-4B1B-82E6-D1157B08C6CC}"/>
+    <hyperlink ref="B44" r:id="rId14" xr:uid="{0396FF36-C4F7-4430-9D28-83B75E093EBF}"/>
+    <hyperlink ref="B45" r:id="rId15" xr:uid="{A82D35DA-DFC9-4F8D-9169-79118D733685}"/>
+    <hyperlink ref="B46" r:id="rId16" xr:uid="{3706B4AD-16FE-4CC3-85C2-C12922C0F097}"/>
+    <hyperlink ref="B47" r:id="rId17" xr:uid="{01BFB8A0-4DFD-4EA5-9C62-45E58E4B3BBE}"/>
+    <hyperlink ref="B48" r:id="rId18" xr:uid="{16CECDE5-5855-4CAD-A9B1-8BB6DA073C48}"/>
+    <hyperlink ref="B50" r:id="rId19" xr:uid="{F0535AD5-D83C-4848-BBB4-FBFA933648E4}"/>
+    <hyperlink ref="B51" r:id="rId20" xr:uid="{9A7A6C05-B5A0-4B43-9293-A11D0A6B1891}"/>
+    <hyperlink ref="B4" r:id="rId21" xr:uid="{48AB65AB-9E14-43C9-BC51-0F3379BC6FF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
